--- a/result/merlin_ourdiscord.xlsx
+++ b/result/merlin_ourdiscord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,16 +481,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.8461538461538461</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.18181818181818182</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'cluster': 22, 'training': 1264, 'window': 200, 'threshold': 2.5}</t>
+          <t>{'cluster': 25, 'training': 603, 'window': 200, 'threshold': 2.0}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.15053649999754</v>
+        <v>6.431246006002766</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -519,16 +521,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'cluster': 14, 'training': 226, 'window': 200, 'threshold': 1.5}</t>
+          <t>{'cluster': 10, 'training': 728, 'window': 200, 'threshold': 3.0}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.50485034600206</v>
+        <v>6.91739891600082</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -557,16 +561,18 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9915966386554622</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.4444444444444445</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'cluster': 26, 'training': 272, 'window': 40, 'threshold': 2.5}</t>
+          <t>{'cluster': 17, 'training': 1785, 'window': 200, 'threshold': 2.0}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32.68844123299641</v>
+        <v>48.02793075299996</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -579,22 +585,96 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7333333333333334</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(0.6773707977922729, 0.4762962962962962)</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'cluster': 15, 'training': 131, 'window': 150, 'threshold': 1.5}</t>
+          <t>{'cluster': 14, 'training': 1133, 'window': 600, 'threshold': 3.5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23.5075930109997</v>
+        <v>341.107463418</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(0.9947229551451187, 0.005305039787798408)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'cluster': 10, 'training': 444, 'window': 40, 'threshold': 3.5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22.19217619799974</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(0.7333333333333334, 0.3636363636363636)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'cluster': 22, 'training': 153, 'window': 150, 'threshold': 3.5}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>27.98834080500001</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(0.7529411764705882, 0.328125)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'cluster': 23, 'training': 559, 'window': 800, 'threshold': 2.0}</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>902.892971193</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result/merlin_ourdiscord.xlsx
+++ b/result/merlin_ourdiscord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,21 +478,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.18181818181818182</t>
-        </is>
+          <t>[1100, 1200, 1900, 3900]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4444444444444445</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'cluster': 25, 'training': 603, 'window': 200, 'threshold': 2.0}</t>
+          <t>{'cluster': 22, 'training': 971, 'window': 200, 'threshold': 16.500000000000014}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.431246006002766</v>
+        <v>53.91298112699951</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -518,21 +516,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[300]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'cluster': 10, 'training': 728, 'window': 200, 'threshold': 3.0}</t>
+          <t>{'cluster': 19, 'training': 102, 'window': 150, 'threshold': 8.300000000000006}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.91739891600082</v>
+        <v>116.3972094950004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -554,126 +552,6 @@
           <t>RAS</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.4444444444444445</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'cluster': 17, 'training': 1785, 'window': 200, 'threshold': 2.0}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>48.02793075299996</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(0.6773707977922729, 0.4762962962962962)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'cluster': 14, 'training': 1133, 'window': 600, 'threshold': 3.5}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>341.107463418</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(0.9947229551451187, 0.005305039787798408)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'cluster': 10, 'training': 444, 'window': 40, 'threshold': 3.5}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>22.19217619799974</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(0.7333333333333334, 0.3636363636363636)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>{'cluster': 22, 'training': 153, 'window': 150, 'threshold': 3.5}</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>27.98834080500001</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(0.7529411764705882, 0.328125)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>{'cluster': 23, 'training': 559, 'window': 800, 'threshold': 2.0}</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>902.892971193</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/merlin_ourdiscord.xlsx
+++ b/result/merlin_ourdiscord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[1100, 1200, 1900, 3900]</t>
+          <t>[1300, 1400, 1500, 1700, 1800, 2400, 2500, 2800, 2900, 3000, 3200, 3300, 3600, 3700]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'cluster': 22, 'training': 971, 'window': 200, 'threshold': 16.500000000000014}</t>
+          <t>{'cluster': 24, 'training': 914, 'window': 200, 'threshold': 6.500000000000005}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53.91298112699951</v>
+        <v>92.90688352804864</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -516,42 +516,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>[1200, 1900, 3900]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'cluster': 13, 'training': 1134, 'window': 200, 'threshold': 14.400000000000013}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>88.04114670603303</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[10500, 10800]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4762962962962962</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'cluster': 19, 'training': 2167, 'window': 600, 'threshold': 8.800000000000008}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4031.088247322012</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[500, 600, 660, 680, 1020, 1040, 1080, 1100, 1120, 1260, 1280, 1540, 1560, 6620, 6840, 6860, 6980, 7040, 7300, 8500, 8660]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.027027027027027</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'cluster': 24, 'training': 435, 'window': 40, 'threshold': 2.8000000000000016}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>540.8467752870056</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[2100, 2300, 2400, 2500, 2600]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'cluster': 16, 'training': 1351, 'window': 200, 'threshold': 10.40000000000001}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>343.0807180380216</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>[300]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'cluster': 19, 'training': 102, 'window': 150, 'threshold': 8.300000000000006}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>116.3972094950004</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>RAS</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>RAS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>RAS</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>RAS</t>
-        </is>
-      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'cluster': 18, 'training': 167, 'window': 150, 'threshold': 6.900000000000006}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>169.3910365159973</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[7600, 11200, 12000]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'cluster': 20, 'training': 5681, 'window': 800, 'threshold': 18.100000000000016}</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>12727.11977235001</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
